--- a/data/trans_dic/P25_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece colesterol alto</t>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,7 +662,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 22,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,06</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 14,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 6,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,38</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,27</t>
+          <t>2,09; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,81</t>
+          <t>1,44; 14,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,23</t>
+          <t>1,37; 15,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 13,07</t>
+          <t>1,57; 18,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>0,0; 8,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,8</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,41</t>
+          <t>0,0; 10,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,85</t>
+          <t>1,33; 14,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,43</t>
+          <t>2,4; 10,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 8,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 9,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 13,19</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>6,79%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,79; 38,28</t>
+          <t>8,11; 27,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 31,69</t>
+          <t>6,82; 25,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 26,24</t>
+          <t>3,51; 19,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 11,16</t>
+          <t>12,91; 35,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 13,56</t>
+          <t>1,73; 13,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 12,02</t>
+          <t>2,75; 14,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 22,3</t>
+          <t>2,96; 15,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 19,7</t>
+          <t>5,16; 27,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,26</t>
+          <t>4,95; 14,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 15,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 13,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 24,96</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 22,33</t>
+          <t>6,4; 20,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 25,1</t>
+          <t>7,59; 23,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 23,31</t>
+          <t>5,55; 19,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 18,83</t>
+          <t>13,96; 32,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 25,22</t>
+          <t>6,06; 18,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 30,11</t>
+          <t>8,5; 21,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 18,67</t>
+          <t>11,45; 27,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 23,02</t>
+          <t>19,27; 37,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 24,55</t>
+          <t>7,84; 17,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 19,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 20,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 31,47</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 33,85</t>
+          <t>14,5; 35,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,49; 37,54</t>
+          <t>17,09; 38,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 34,97</t>
+          <t>15,32; 36,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,52; 35,67</t>
+          <t>19,99; 42,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 39,35</t>
+          <t>12,99; 34,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 36,32</t>
+          <t>13,56; 38,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,02; 31,26</t>
+          <t>15,06; 40,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,86; 35,76</t>
+          <t>20,08; 47,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,55</t>
+          <t>15,75; 31,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 33,72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 32,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 41,09</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 40,1</t>
+          <t>18,79; 48,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 27,56</t>
+          <t>11,82; 36,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,5; 42,11</t>
+          <t>17,8; 47,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,63; 35,85</t>
+          <t>8,76; 34,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,59; 38,95</t>
+          <t>16,75; 44,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,46; 35,87</t>
+          <t>16,63; 42,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,19; 34,25</t>
+          <t>12,74; 37,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,91; 31,01</t>
+          <t>20,95; 52,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,33; 35,0</t>
+          <t>21,81; 40,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 35,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 37,59</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 39,07</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 20,74</t>
+          <t>11,31; 19,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 18,67</t>
+          <t>10,8; 18,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,74</t>
+          <t>9,41; 16,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,63</t>
+          <t>12,08; 21,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,24</t>
+          <t>7,76; 13,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,97</t>
+          <t>8,73; 15,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,79</t>
+          <t>9,6; 15,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,89</t>
+          <t>14,77; 24,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,52</t>
+          <t>10,5; 15,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 15,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 14,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 20,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5561</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6724</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5561</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23548</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15158</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14352</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17786</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16184</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16856</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21390</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19927</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18573</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14574</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7383</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15479</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8830</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17372</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9550</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24309</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3527; 31946</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2026; 20776</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2110; 24566</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3572; 42714</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14495</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12151</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13029</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2158; 23952</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8008; 36323</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2441; 23659</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3961; 26930</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10111; 51441</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25311</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13422</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39626</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12591</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13614</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25574</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37902</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31922</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27036</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12933; 44130</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8773; 32239</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4740; 26490</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23262; 63926</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4576; 35268</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5705; 30315</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5942; 30891</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12364; 64902</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20975; 62369</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17868; 52441</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14896; 46626</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44827; 104836</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22748</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22258</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18183</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43595</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27044</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31008</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>57637</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47213</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49302</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49191</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>101233</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11950; 38020</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12106; 37400</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8670; 30832</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27829; 65495</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13224; 40135</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15652; 40447</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19351; 45914</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40588; 78853</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>31758; 69585</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34191; 68676</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33686; 67148</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>74943; 129033</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36547</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36088</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30501</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47602</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25562</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21992</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23117</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43661</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>62109</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58080</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>53617</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>91263</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22830; 55232</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22577; 50820</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18878; 45282</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30919; 65887</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14788; 39455</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12720; 35861</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13960; 37084</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27520; 64838</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42721; 84356</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>41780; 76175</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38750; 71066</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68089; 119850</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33936</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19262</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28457</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25586</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40262</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29107</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25581</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>73662</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>74198</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>48368</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>54038</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>99248</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20536; 52789</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10322; 31968</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16040; 43000</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12078; 46916</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22604; 59929</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17484; 44218</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14092; 41332</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44170; 111584</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53272; 98363</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>32959; 68388</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36095; 75452</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>63289; 136221</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>133115</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>106826</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>98753</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>171888</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>108733</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>97121</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>102979</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>212441</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>241848</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>203947</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>201732</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>384328</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100529; 169554</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>81427; 138287</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>73977; 128909</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>126266; 219854</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>79980; 142001</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>73125; 126959</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>78885; 130554</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>163396; 271007</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>201402; 288333</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>167152; 248391</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>167095; 238872</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>320949; 449075</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>